--- a/tables/1981/1981_Table8.xlsx
+++ b/tables/1981/1981_Table8.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cgiar-my.sharepoint.com/personal/m_adetuyi_cgiar_org/Documents/WORK/MR PRASAD/2022/7. August/Annual Report/New_Tables/1981/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="data"/>
-    <sheet r:id="rId2" sheetId="2" name="detail"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Table 8. Clones with high pubscence and resistance to both CM and CGM</t>
-  </si>
-  <si>
-    <t>Average hairs of 6 samples</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Clone</t>
   </si>
@@ -60,14 +58,31 @@
   </si>
   <si>
     <t>TMS 4(2)1425</t>
+  </si>
+  <si>
+    <t>Table Name:</t>
+  </si>
+  <si>
+    <t>(3.5)</t>
+  </si>
+  <si>
+    <t>Clones with high pubscence and resistance to both CM and CGM</t>
+  </si>
+  <si>
+    <t>Foot Note:</t>
+  </si>
+  <si>
+    <t>* Average hairs of 6 samples</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +96,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -90,7 +113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -105,39 +128,176 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+  <cellXfs count="24">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -148,10 +308,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -189,71 +349,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -281,7 +441,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -304,11 +464,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -317,13 +477,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -333,7 +493,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -342,7 +502,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -351,7 +511,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -359,10 +519,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -431,180 +591,198 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="2" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="E2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B3" s="12">
+        <v>5013</v>
+      </c>
+      <c r="C3" s="12">
+        <v>2118</v>
+      </c>
+      <c r="D3" s="13">
+        <v>604</v>
+      </c>
+      <c r="E3" s="13">
+        <v>515</v>
+      </c>
+      <c r="F3" s="14">
+        <v>2</v>
+      </c>
+      <c r="G3" s="15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>8</v>
       </c>
+      <c r="B4" s="4">
+        <v>4550</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2792</v>
+      </c>
+      <c r="D4" s="2">
+        <v>464</v>
+      </c>
+      <c r="E4" s="2">
+        <v>713</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+      <c r="G4" s="17">
+        <v>2</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
+    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4">
-        <v>5013</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2118</v>
-      </c>
-      <c r="D2" s="4">
-        <v>604</v>
-      </c>
-      <c r="E2" s="4">
-        <v>515</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="B5" s="4">
+        <v>4237</v>
+      </c>
+      <c r="C5" s="4">
+        <v>962</v>
+      </c>
+      <c r="D5" s="2">
+        <v>158</v>
+      </c>
+      <c r="E5" s="2">
+        <v>201</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2.5</v>
+      </c>
+      <c r="G5" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3388</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1310</v>
+      </c>
+      <c r="D6" s="2">
+        <v>373</v>
+      </c>
+      <c r="E6" s="2">
+        <v>233</v>
+      </c>
+      <c r="F6" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="5">
-        <v>2.5</v>
+      <c r="G6" s="17">
+        <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="4">
-        <v>4550</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2792</v>
-      </c>
-      <c r="D3" s="4">
-        <v>464</v>
-      </c>
-      <c r="E3" s="4">
-        <v>713</v>
-      </c>
-      <c r="F3" s="4">
+    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2480</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1195</v>
+      </c>
+      <c r="D7" s="2">
+        <v>238</v>
+      </c>
+      <c r="E7" s="2">
+        <v>210</v>
+      </c>
+      <c r="F7" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G7" s="18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="20">
+        <v>2188</v>
+      </c>
+      <c r="C8" s="20">
+        <v>347</v>
+      </c>
+      <c r="D8" s="21">
+        <v>79</v>
+      </c>
+      <c r="E8" s="21">
+        <v>91</v>
+      </c>
+      <c r="F8" s="22">
         <v>2</v>
       </c>
+      <c r="G8" s="23">
+        <v>2</v>
+      </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4237</v>
-      </c>
-      <c r="C4" s="4">
-        <v>962</v>
-      </c>
-      <c r="D4" s="4">
-        <v>158</v>
-      </c>
-      <c r="E4" s="4">
-        <v>201</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2.5</v>
-      </c>
-      <c r="G4" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3388</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1310</v>
-      </c>
-      <c r="D5" s="4">
-        <v>373</v>
-      </c>
-      <c r="E5" s="4">
-        <v>233</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="4">
-        <v>2480</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1195</v>
-      </c>
-      <c r="D6" s="4">
-        <v>238</v>
-      </c>
-      <c r="E6" s="4">
-        <v>210</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2188</v>
-      </c>
-      <c r="C7" s="4">
-        <v>347</v>
-      </c>
-      <c r="D7" s="4">
-        <v>79</v>
-      </c>
-      <c r="E7" s="4">
-        <v>91</v>
-      </c>
-      <c r="F7" s="4">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4">
-        <v>2</v>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -612,31 +790,290 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="2" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
-  <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100284A27838130D149A2783A40AB43BA83" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bac4f5e4b6cdcb97fbf92ed416088beb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1ef7e49f-bd9c-470c-bea7-6795de71c18b" xmlns:ns4="1ce501d2-3302-407b-b8e4-287cbb5596d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5b7d79c94ab8e42cd9b5996806927073" ns3:_="" ns4:_="">
+    <xsd:import namespace="1ef7e49f-bd9c-470c-bea7-6795de71c18b"/>
+    <xsd:import namespace="1ce501d2-3302-407b-b8e4-287cbb5596d3"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1ef7e49f-bd9c-470c-bea7-6795de71c18b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="18" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1ce501d2-3302-407b-b8e4-287cbb5596d3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="21" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA2656C1-BD39-4426-99FE-06BF29068B70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1ef7e49f-bd9c-470c-bea7-6795de71c18b"/>
+    <ds:schemaRef ds:uri="1ce501d2-3302-407b-b8e4-287cbb5596d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02574201-12C8-4BEA-A477-AABC3BCB1AF3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8D83895-A459-4195-A924-99AE064C0749}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1ef7e49f-bd9c-470c-bea7-6795de71c18b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1ce501d2-3302-407b-b8e4-287cbb5596d3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>